--- a/app/Licenciatura_em_Agricultura_Comercial.xlsx
+++ b/app/Licenciatura_em_Agricultura_Comercial.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Ana Tualufo Chitsumba</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>Luisa Rogerio Fabiao</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>100300594275B</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>Graca Cazimiro Cossa</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>09204065079M</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>Isabel Jose Z. Simbine</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -305,9 +293,6 @@
     <t>Sandra Manuela Roberto</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102870865C</t>
   </si>
   <si>
@@ -368,9 +353,6 @@
     <t>Maria Isaac Mahalambie</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -392,9 +374,6 @@
     <t>Joana Paulo Fondo</t>
   </si>
   <si>
-    <t>Distrito de Zavala</t>
-  </si>
-  <si>
     <t>081401120447J</t>
   </si>
   <si>
@@ -419,9 +398,6 @@
     <t>Teresa Francisco</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080101038582Q</t>
   </si>
   <si>
@@ -443,9 +419,6 @@
     <t>Fatima Supeio Gulube</t>
   </si>
   <si>
-    <t>Distrito de Govuro</t>
-  </si>
-  <si>
     <t>080301740355N</t>
   </si>
   <si>
@@ -467,9 +440,6 @@
     <t>Elisa Jossefina Langa</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110100556017B</t>
   </si>
   <si>
@@ -516,9 +486,6 @@
   </si>
   <si>
     <t>Marta Pio LuÍs</t>
-  </si>
-  <si>
-    <t>Cidade de Quelimane</t>
   </si>
   <si>
     <t>+258827779578</t>
@@ -1805,7 +1772,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1821,7 +1788,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1837,7 +1804,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1853,7 +1820,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1869,7 +1836,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1884,9 +1851,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1894,7 +1859,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1905,7 +1870,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1914,7 +1879,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1926,7 +1891,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1934,7 +1899,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2030,7 +1995,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2073,7 +2038,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2400,7 +2365,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2416,7 +2381,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2432,7 +2397,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2464,7 +2429,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2479,9 +2444,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2489,7 +2452,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2500,7 +2463,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2509,7 +2472,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2521,7 +2484,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2529,7 +2492,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2625,7 +2588,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2668,7 +2631,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2995,7 +2958,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3011,7 +2974,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3027,7 +2990,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3043,7 +3006,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3059,7 +3022,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3074,9 +3037,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3084,7 +3045,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3095,7 +3056,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3104,7 +3065,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3116,7 +3077,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3124,7 +3085,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3220,7 +3181,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3263,7 +3224,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3590,7 +3551,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3606,7 +3567,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3622,7 +3583,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3638,7 +3599,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3654,7 +3615,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3669,9 +3630,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>144</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3679,7 +3638,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3690,7 +3649,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3699,7 +3658,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3711,7 +3670,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3719,7 +3678,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3815,7 +3774,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3858,7 +3817,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4185,7 +4144,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4201,7 +4160,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4217,7 +4176,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4233,7 +4192,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4249,7 +4208,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4264,9 +4223,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4274,7 +4231,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4285,7 +4242,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4294,7 +4251,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4306,7 +4263,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4314,7 +4271,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4410,7 +4367,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4453,7 +4410,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4780,7 +4737,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4796,7 +4753,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4812,7 +4769,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4828,7 +4785,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4844,7 +4801,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4859,9 +4816,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>161</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4869,7 +4824,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4880,7 +4835,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4889,7 +4844,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4901,7 +4856,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5005,7 +4960,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5048,7 +5003,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5375,7 +5330,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5391,7 +5346,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5407,7 +5362,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5423,7 +5378,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5439,7 +5394,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5454,9 +5409,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5464,7 +5417,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5475,7 +5428,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5484,7 +5437,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5496,7 +5449,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5504,7 +5457,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5600,7 +5553,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5643,7 +5596,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6105,9 +6058,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6115,7 +6066,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6126,7 +6077,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6135,7 +6086,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6147,7 +6098,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6155,7 +6106,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6251,7 +6202,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6294,7 +6245,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6621,7 +6572,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6637,7 +6588,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6653,7 +6604,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6669,7 +6620,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6685,7 +6636,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6700,9 +6651,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6710,7 +6659,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6721,7 +6670,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6730,7 +6679,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6742,7 +6691,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6750,7 +6699,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6846,7 +6795,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6889,7 +6838,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7216,7 +7165,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7232,7 +7181,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7248,7 +7197,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7264,7 +7213,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7280,7 +7229,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7295,9 +7244,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7305,7 +7252,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7316,7 +7263,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7325,7 +7272,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7337,7 +7284,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7345,7 +7292,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7441,7 +7388,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7484,7 +7431,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7811,7 +7758,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7827,7 +7774,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7843,7 +7790,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7859,7 +7806,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7875,7 +7822,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7890,9 +7837,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7900,7 +7845,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7911,7 +7856,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7920,7 +7865,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7932,7 +7877,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8036,7 +7981,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8079,7 +8024,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8406,7 +8351,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8422,7 +8367,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8438,7 +8383,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8454,7 +8399,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8470,7 +8415,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8485,9 +8430,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8495,7 +8438,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8506,7 +8449,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8515,7 +8458,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8527,7 +8470,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8535,7 +8478,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8631,7 +8574,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8674,7 +8617,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9001,7 +8944,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9017,7 +8960,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9033,7 +8976,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9049,7 +8992,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9065,7 +9008,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9080,9 +9023,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9090,7 +9031,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9101,7 +9042,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9110,7 +9051,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9122,7 +9063,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9226,7 +9167,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9269,7 +9210,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9596,7 +9537,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9612,7 +9553,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9628,7 +9569,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9644,7 +9585,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9660,7 +9601,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9675,9 +9616,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9685,7 +9624,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9696,7 +9635,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9705,7 +9644,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9717,7 +9656,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9725,7 +9664,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9821,7 +9760,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9864,7 +9803,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10191,7 +10130,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10207,7 +10146,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10223,7 +10162,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10239,7 +10178,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10255,7 +10194,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10270,9 +10209,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10280,7 +10217,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10291,7 +10228,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10300,7 +10237,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10312,7 +10249,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10416,7 +10353,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10459,7 +10396,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
